--- a/data/hmgu/HE_pos_mzml/seq.xlsx
+++ b/data/hmgu/HE_pos_mzml/seq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scientificnet-my.sharepoint.com/personal/plouail_eurac_edu/Documents/Documents/GitHub/HUMAN_Ring_Trial/data/hmgu/HE_pos_mzml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{A9B29A43-3ED0-4912-A9BA-E2B8F5087816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4EC7CE0-807B-4976-8E1E-8D3D72F0515E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{A9B29A43-3ED0-4912-A9BA-E2B8F5087816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1FCC4F1-809E-4DCB-8C15-5B94D7701711}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12CEF699-BEDD-40B8-B88E-07ECDE4443C9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{12CEF699-BEDD-40B8-B88E-07ECDE4443C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,6 +338,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,16 +663,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F7E9E7-95B5-4E2E-9757-0BDF536D6E7A}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -696,7 +702,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -710,7 +716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -724,7 +730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -738,7 +744,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -752,7 +758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -766,7 +772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -780,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -794,7 +800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -808,7 +814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -822,7 +828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -836,7 +842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -850,7 +856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -864,7 +870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -878,7 +884,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -892,7 +898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -906,7 +912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -920,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -934,7 +940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -948,7 +954,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -962,7 +968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -976,7 +982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -990,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
